--- a/GPT_MASB_Room203.xlsx
+++ b/GPT_MASB_Room203.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EC-033</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -466,12 +466,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-033</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EC-034</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-034</t>
         </is>
       </c>
     </row>
@@ -520,12 +520,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-035</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EC-035</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-036</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-037</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-038</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
